--- a/historial_frutas.xlsx
+++ b/historial_frutas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,65 +463,77 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SANDIA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sas</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sas</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sas</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>23</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/historial_frutas.xlsx
+++ b/historial_frutas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,94 +445,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
-          <t>SANDIA</t>
+          <t>tomate</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>50</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>sas</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>23</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2342</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>sas</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>23</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2342</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>sas</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>23</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2342</t>
-        </is>
+      <c r="B3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
